--- a/data/pca/factorExposure/factorExposure_2016-08-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0126130623556542</v>
+        <v>0.01375184987961054</v>
       </c>
       <c r="C2">
-        <v>-0.05556356189601337</v>
+        <v>0.04345448744406492</v>
       </c>
       <c r="D2">
-        <v>0.03650392614984854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06448142599628018</v>
+      </c>
+      <c r="E2">
+        <v>0.05594648904955622</v>
+      </c>
+      <c r="F2">
+        <v>0.07916351292263828</v>
+      </c>
+      <c r="G2">
+        <v>0.03480623402322965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06248228450331449</v>
+        <v>0.03106938617092507</v>
       </c>
       <c r="C3">
-        <v>-0.09232866827283434</v>
+        <v>0.0816366381054708</v>
       </c>
       <c r="D3">
-        <v>0.08744820298867197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09005449263754887</v>
+      </c>
+      <c r="E3">
+        <v>0.06437981815656181</v>
+      </c>
+      <c r="F3">
+        <v>0.007126325546653279</v>
+      </c>
+      <c r="G3">
+        <v>-0.03917555425873536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06685806865506315</v>
+        <v>0.0577148541057368</v>
       </c>
       <c r="C4">
-        <v>-0.0576277496089326</v>
+        <v>0.06623748926120664</v>
       </c>
       <c r="D4">
-        <v>0.02509414156151834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05869312577031732</v>
+      </c>
+      <c r="E4">
+        <v>0.05391017039888121</v>
+      </c>
+      <c r="F4">
+        <v>0.08722941706484513</v>
+      </c>
+      <c r="G4">
+        <v>-0.03752953158660381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04306718396953453</v>
+        <v>0.0354978403613856</v>
       </c>
       <c r="C6">
-        <v>-0.0360773655136072</v>
+        <v>0.03172449029146662</v>
       </c>
       <c r="D6">
-        <v>0.02968025532204676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06577351174789746</v>
+      </c>
+      <c r="E6">
+        <v>0.06128186190192086</v>
+      </c>
+      <c r="F6">
+        <v>0.06869345295570108</v>
+      </c>
+      <c r="G6">
+        <v>-0.02211135714132222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02234677014809456</v>
+        <v>0.01913778727903203</v>
       </c>
       <c r="C7">
-        <v>-0.04359587562550445</v>
+        <v>0.0387202363151935</v>
       </c>
       <c r="D7">
-        <v>-0.003570832518422303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03695681187737996</v>
+      </c>
+      <c r="E7">
+        <v>0.03544948298795201</v>
+      </c>
+      <c r="F7">
+        <v>0.1059898624018506</v>
+      </c>
+      <c r="G7">
+        <v>-0.006345002179355056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002255375858155979</v>
+        <v>0.003164492311392638</v>
       </c>
       <c r="C8">
-        <v>-0.02686991079881947</v>
+        <v>0.02900462497534733</v>
       </c>
       <c r="D8">
-        <v>0.03165272790476276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03392182571936724</v>
+      </c>
+      <c r="E8">
+        <v>0.04290853063082374</v>
+      </c>
+      <c r="F8">
+        <v>0.04926693999217081</v>
+      </c>
+      <c r="G8">
+        <v>-0.009968519652150726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03676842606424845</v>
+        <v>0.03651514305246682</v>
       </c>
       <c r="C9">
-        <v>-0.04166755216129386</v>
+        <v>0.05275841435307366</v>
       </c>
       <c r="D9">
-        <v>0.012240931706263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04321317005019374</v>
+      </c>
+      <c r="E9">
+        <v>0.04449847708869857</v>
+      </c>
+      <c r="F9">
+        <v>0.09172673106593175</v>
+      </c>
+      <c r="G9">
+        <v>-0.02214653619098986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.06892549185443671</v>
+        <v>0.09847769576351914</v>
       </c>
       <c r="C10">
-        <v>0.1956572168830447</v>
+        <v>-0.1951346363097218</v>
       </c>
       <c r="D10">
-        <v>-0.0004493611917373084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001997620032094381</v>
+      </c>
+      <c r="E10">
+        <v>0.04530697638204533</v>
+      </c>
+      <c r="F10">
+        <v>0.04122462808315221</v>
+      </c>
+      <c r="G10">
+        <v>-0.00886105298832479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04277318461563372</v>
+        <v>0.03652853926190242</v>
       </c>
       <c r="C11">
-        <v>-0.05380239046480732</v>
+        <v>0.0512111197018814</v>
       </c>
       <c r="D11">
-        <v>0.00753063694584709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03355816983883059</v>
+      </c>
+      <c r="E11">
+        <v>0.007109670037957668</v>
+      </c>
+      <c r="F11">
+        <v>0.06606155150522758</v>
+      </c>
+      <c r="G11">
+        <v>-0.01442520679055265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04221490189959244</v>
+        <v>0.03739315705653139</v>
       </c>
       <c r="C12">
-        <v>-0.04863886950004417</v>
+        <v>0.04734429500761193</v>
       </c>
       <c r="D12">
-        <v>0.0007992706688682876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02546471039661412</v>
+      </c>
+      <c r="E12">
+        <v>0.01556304232066459</v>
+      </c>
+      <c r="F12">
+        <v>0.06872890756580034</v>
+      </c>
+      <c r="G12">
+        <v>-0.01130759545766245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01749748231220561</v>
+        <v>0.01216668106715772</v>
       </c>
       <c r="C13">
-        <v>-0.04696678817951153</v>
+        <v>0.0428483473747529</v>
       </c>
       <c r="D13">
-        <v>0.01923684938537895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06138206410259956</v>
+      </c>
+      <c r="E13">
+        <v>0.06580614262880959</v>
+      </c>
+      <c r="F13">
+        <v>0.111739889735501</v>
+      </c>
+      <c r="G13">
+        <v>-0.01834544334125967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00889817497347526</v>
+        <v>0.00501901751587496</v>
       </c>
       <c r="C14">
-        <v>-0.03462838674824423</v>
+        <v>0.03218874860516601</v>
       </c>
       <c r="D14">
-        <v>-0.01686977681332586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02556921005168927</v>
+      </c>
+      <c r="E14">
+        <v>0.02815856977650294</v>
+      </c>
+      <c r="F14">
+        <v>0.09719653371367304</v>
+      </c>
+      <c r="G14">
+        <v>0.008449107327109845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001324399819530047</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00332398755399211</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005515426733693376</v>
+      </c>
+      <c r="E15">
+        <v>0.000731625590003199</v>
+      </c>
+      <c r="F15">
+        <v>0.003699391216203255</v>
+      </c>
+      <c r="G15">
+        <v>0.00103284557432418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03858573441718002</v>
+        <v>0.03399186808061256</v>
       </c>
       <c r="C16">
-        <v>-0.04567661709025321</v>
+        <v>0.04532102913531148</v>
       </c>
       <c r="D16">
-        <v>0.006508733516713228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0273331368769492</v>
+      </c>
+      <c r="E16">
+        <v>0.0211746104280457</v>
+      </c>
+      <c r="F16">
+        <v>0.07024123592369741</v>
+      </c>
+      <c r="G16">
+        <v>-0.0008067358055796207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02741218078752844</v>
+        <v>0.01667335195286032</v>
       </c>
       <c r="C19">
-        <v>-0.06208063372194702</v>
+        <v>0.05097102978072959</v>
       </c>
       <c r="D19">
-        <v>0.072318540721376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09289917676517398</v>
+      </c>
+      <c r="E19">
+        <v>0.08439551710191864</v>
+      </c>
+      <c r="F19">
+        <v>0.09004415545309656</v>
+      </c>
+      <c r="G19">
+        <v>0.02261600055785712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01880373443699628</v>
+        <v>0.01350942689513612</v>
       </c>
       <c r="C20">
-        <v>-0.04519926018223688</v>
+        <v>0.04128008273606937</v>
       </c>
       <c r="D20">
-        <v>0.01695266480919897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03853820703503832</v>
+      </c>
+      <c r="E20">
+        <v>0.05793913696050023</v>
+      </c>
+      <c r="F20">
+        <v>0.08740005164473993</v>
+      </c>
+      <c r="G20">
+        <v>-0.004491192473305644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01404700166598785</v>
+        <v>0.008966907113748307</v>
       </c>
       <c r="C21">
-        <v>-0.04802158956637664</v>
+        <v>0.04521953554592634</v>
       </c>
       <c r="D21">
-        <v>0.03329707438401384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06646537535470692</v>
+      </c>
+      <c r="E21">
+        <v>0.07371671350560224</v>
+      </c>
+      <c r="F21">
+        <v>0.1362262861916784</v>
+      </c>
+      <c r="G21">
+        <v>-0.006636644138916749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.00187024846375174</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0231477713600837</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03621995919624179</v>
+      </c>
+      <c r="E22">
+        <v>0.02137795829196239</v>
+      </c>
+      <c r="F22">
+        <v>0.02059687457836477</v>
+      </c>
+      <c r="G22">
+        <v>-0.03888855485837246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001938457477603693</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02327083231067086</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03590006732098251</v>
+      </c>
+      <c r="E23">
+        <v>0.02165057674063862</v>
+      </c>
+      <c r="F23">
+        <v>0.02046816131660794</v>
+      </c>
+      <c r="G23">
+        <v>-0.03909259829800244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03418532412486888</v>
+        <v>0.03372765103599523</v>
       </c>
       <c r="C24">
-        <v>-0.0502482082518025</v>
+        <v>0.05324901576246859</v>
       </c>
       <c r="D24">
-        <v>0.004657271739529837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02644703050788481</v>
+      </c>
+      <c r="E24">
+        <v>0.01851521534095217</v>
+      </c>
+      <c r="F24">
+        <v>0.0784094006544219</v>
+      </c>
+      <c r="G24">
+        <v>-0.008242621072440129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04847233028435814</v>
+        <v>0.04415062163384135</v>
       </c>
       <c r="C25">
-        <v>-0.05925544184868971</v>
+        <v>0.0561917440798457</v>
       </c>
       <c r="D25">
-        <v>-0.00645686310133238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02450608149571333</v>
+      </c>
+      <c r="E25">
+        <v>0.01284610810839558</v>
+      </c>
+      <c r="F25">
+        <v>0.08004827116665382</v>
+      </c>
+      <c r="G25">
+        <v>-0.02503790450526713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01735342158061169</v>
+        <v>0.01382822073110721</v>
       </c>
       <c r="C26">
-        <v>-0.0160463345068485</v>
+        <v>0.01707472629040096</v>
       </c>
       <c r="D26">
-        <v>-0.001349817639793826</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02507758256005526</v>
+      </c>
+      <c r="E26">
+        <v>0.03004726007507036</v>
+      </c>
+      <c r="F26">
+        <v>0.07310830037817927</v>
+      </c>
+      <c r="G26">
+        <v>0.01466475978656399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.07966567345563971</v>
+        <v>0.1326898247531396</v>
       </c>
       <c r="C28">
-        <v>0.229612741143832</v>
+        <v>-0.2457589178790468</v>
       </c>
       <c r="D28">
-        <v>-0.001848657118405636</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01761462788044399</v>
+      </c>
+      <c r="E28">
+        <v>0.04778064231831352</v>
+      </c>
+      <c r="F28">
+        <v>0.05649794154759762</v>
+      </c>
+      <c r="G28">
+        <v>-0.02138885994290323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01070087299199197</v>
+        <v>0.006045748740624558</v>
       </c>
       <c r="C29">
-        <v>-0.02742201433727155</v>
+        <v>0.02759716124846255</v>
       </c>
       <c r="D29">
-        <v>-0.01851839115680134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01996310878543686</v>
+      </c>
+      <c r="E29">
+        <v>0.03027629932210078</v>
+      </c>
+      <c r="F29">
+        <v>0.08914947997907371</v>
+      </c>
+      <c r="G29">
+        <v>-0.003821415367417212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05560742426376064</v>
+        <v>0.04241171546513944</v>
       </c>
       <c r="C30">
-        <v>-0.05785624365548128</v>
+        <v>0.06490025630681943</v>
       </c>
       <c r="D30">
-        <v>0.05834795455701796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1068269051294401</v>
+      </c>
+      <c r="E30">
+        <v>0.04593511792591558</v>
+      </c>
+      <c r="F30">
+        <v>0.1023844375069008</v>
+      </c>
+      <c r="G30">
+        <v>0.01427973553173906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05461993067940196</v>
+        <v>0.05478455830181226</v>
       </c>
       <c r="C31">
-        <v>-0.03197647915817342</v>
+        <v>0.05466184958820529</v>
       </c>
       <c r="D31">
-        <v>-0.02152144243212389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0114875576851679</v>
+      </c>
+      <c r="E31">
+        <v>0.04911185542989645</v>
+      </c>
+      <c r="F31">
+        <v>0.08015510409029605</v>
+      </c>
+      <c r="G31">
+        <v>-0.04718904197168849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003091900801013792</v>
+        <v>0.004950051206780907</v>
       </c>
       <c r="C32">
-        <v>-0.04456487014047392</v>
+        <v>0.03363838023033076</v>
       </c>
       <c r="D32">
-        <v>0.02952257943027389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05039684236556571</v>
+      </c>
+      <c r="E32">
+        <v>0.026659454629515</v>
+      </c>
+      <c r="F32">
+        <v>0.0739545806386509</v>
+      </c>
+      <c r="G32">
+        <v>0.01109474242640329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03047708362905772</v>
+        <v>0.02470496932350368</v>
       </c>
       <c r="C33">
-        <v>-0.06054369753843936</v>
+        <v>0.05531807837604727</v>
       </c>
       <c r="D33">
-        <v>0.03711216649852672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07853108177132488</v>
+      </c>
+      <c r="E33">
+        <v>0.05480497966977581</v>
+      </c>
+      <c r="F33">
+        <v>0.1275151521902637</v>
+      </c>
+      <c r="G33">
+        <v>-0.01965572712618073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04666217636000843</v>
+        <v>0.04133826025882334</v>
       </c>
       <c r="C34">
-        <v>-0.06384849486547718</v>
+        <v>0.06363139903915764</v>
       </c>
       <c r="D34">
-        <v>0.002354132457731565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03339907307318811</v>
+      </c>
+      <c r="E34">
+        <v>-0.00529454346487964</v>
+      </c>
+      <c r="F34">
+        <v>0.07643857389723703</v>
+      </c>
+      <c r="G34">
+        <v>-0.01020282744637764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01406722699695065</v>
+        <v>0.01294867053019827</v>
       </c>
       <c r="C36">
-        <v>-0.016362892074787</v>
+        <v>0.01274959148819452</v>
       </c>
       <c r="D36">
-        <v>-0.002088951581935583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02643962577500086</v>
+      </c>
+      <c r="E36">
+        <v>0.03605196419243787</v>
+      </c>
+      <c r="F36">
+        <v>0.08067242059430528</v>
+      </c>
+      <c r="G36">
+        <v>-0.008645332270387017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03175589300913198</v>
+        <v>0.02442597912002276</v>
       </c>
       <c r="C38">
-        <v>-0.02863728782926581</v>
+        <v>0.02451779690020892</v>
       </c>
       <c r="D38">
-        <v>-0.003233907108890857</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02559088618174826</v>
+      </c>
+      <c r="E38">
+        <v>0.03513983924393041</v>
+      </c>
+      <c r="F38">
+        <v>0.06901861851347049</v>
+      </c>
+      <c r="G38">
+        <v>-0.004072003837031917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04647433745532054</v>
+        <v>0.03964942293555804</v>
       </c>
       <c r="C39">
-        <v>-0.07201271956925621</v>
+        <v>0.06825873026293046</v>
       </c>
       <c r="D39">
-        <v>0.02149944483814993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05268219035137547</v>
+      </c>
+      <c r="E39">
+        <v>0.0210630439088471</v>
+      </c>
+      <c r="F39">
+        <v>0.09052316314663814</v>
+      </c>
+      <c r="G39">
+        <v>0.01531683208000729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01701938359864506</v>
+        <v>0.01560759031125178</v>
       </c>
       <c r="C40">
-        <v>-0.03873566100584073</v>
+        <v>0.04085689077204371</v>
       </c>
       <c r="D40">
-        <v>0.03285226500866111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03759894183147749</v>
+      </c>
+      <c r="E40">
+        <v>0.07273013426516929</v>
+      </c>
+      <c r="F40">
+        <v>0.08488831459923667</v>
+      </c>
+      <c r="G40">
+        <v>-0.0434661639159622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01580231144837981</v>
+        <v>0.01749264655910056</v>
       </c>
       <c r="C41">
-        <v>-0.01151355775143317</v>
+        <v>0.006674399438334096</v>
       </c>
       <c r="D41">
-        <v>-0.004256358623666601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01466429153712698</v>
+      </c>
+      <c r="E41">
+        <v>0.03950908638900903</v>
+      </c>
+      <c r="F41">
+        <v>0.07062020849015585</v>
+      </c>
+      <c r="G41">
+        <v>-0.002255159399847218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0008039782299713699</v>
+        <v>0.0006317079000334257</v>
       </c>
       <c r="C42">
-        <v>-0.006328830321517725</v>
+        <v>0.003510668022033687</v>
       </c>
       <c r="D42">
-        <v>0.007258595225974298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001422406747992636</v>
+      </c>
+      <c r="E42">
+        <v>0.006439835962488214</v>
+      </c>
+      <c r="F42">
+        <v>-0.004821441752958209</v>
+      </c>
+      <c r="G42">
+        <v>0.000727530064374437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03644288887563309</v>
+        <v>0.028625482652689</v>
       </c>
       <c r="C43">
-        <v>-0.02478085185264624</v>
+        <v>0.02187918015760566</v>
       </c>
       <c r="D43">
-        <v>0.0119631122425289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03848355662267697</v>
+      </c>
+      <c r="E43">
+        <v>0.0460818508419611</v>
+      </c>
+      <c r="F43">
+        <v>0.08478882627687021</v>
+      </c>
+      <c r="G43">
+        <v>-0.02190526943574813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02199507969588979</v>
+        <v>0.01424870897541282</v>
       </c>
       <c r="C44">
-        <v>-0.05766954856180569</v>
+        <v>0.05263818638841406</v>
       </c>
       <c r="D44">
-        <v>0.01390011029026754</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03861700654031443</v>
+      </c>
+      <c r="E44">
+        <v>0.059203335773464</v>
+      </c>
+      <c r="F44">
+        <v>0.08756720766332755</v>
+      </c>
+      <c r="G44">
+        <v>0.003440028618394484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006384776052958676</v>
+        <v>0.007634823741029515</v>
       </c>
       <c r="C46">
-        <v>-0.02231971562782977</v>
+        <v>0.02578542224533178</v>
       </c>
       <c r="D46">
-        <v>-0.02473458026204993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01161275475723718</v>
+      </c>
+      <c r="E46">
+        <v>0.03447955388172099</v>
+      </c>
+      <c r="F46">
+        <v>0.1038532804395922</v>
+      </c>
+      <c r="G46">
+        <v>0.0003218608357897263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08484688133955193</v>
+        <v>0.08723716824752772</v>
       </c>
       <c r="C47">
-        <v>-0.06699378634085992</v>
+        <v>0.07953720328633704</v>
       </c>
       <c r="D47">
-        <v>-0.01801693478044518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01803412844162764</v>
+      </c>
+      <c r="E47">
+        <v>0.05515963008647577</v>
+      </c>
+      <c r="F47">
+        <v>0.07952382232780011</v>
+      </c>
+      <c r="G47">
+        <v>-0.04989606313223704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0205311261369388</v>
+        <v>0.01566916977801342</v>
       </c>
       <c r="C48">
-        <v>-0.01329946363177321</v>
+        <v>0.01788995838219152</v>
       </c>
       <c r="D48">
-        <v>-0.01128991109762001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01630468477432672</v>
+      </c>
+      <c r="E48">
+        <v>0.04739546752613989</v>
+      </c>
+      <c r="F48">
+        <v>0.09533848107200746</v>
+      </c>
+      <c r="G48">
+        <v>-0.007849832773589025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08488892953373425</v>
+        <v>0.07105609827691362</v>
       </c>
       <c r="C50">
-        <v>-0.06655674162405444</v>
+        <v>0.07125859960313977</v>
       </c>
       <c r="D50">
-        <v>-0.02773303363172936</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.006282091203270593</v>
+      </c>
+      <c r="E50">
+        <v>0.05369673327105916</v>
+      </c>
+      <c r="F50">
+        <v>0.07172068555685113</v>
+      </c>
+      <c r="G50">
+        <v>-0.07214223340960803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01811888992490663</v>
+        <v>0.01076423136517002</v>
       </c>
       <c r="C51">
-        <v>-0.04711524986542649</v>
+        <v>0.03408428771054565</v>
       </c>
       <c r="D51">
-        <v>0.01301357765963259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04800966122577759</v>
+      </c>
+      <c r="E51">
+        <v>0.02443522086097081</v>
+      </c>
+      <c r="F51">
+        <v>0.08219583946358663</v>
+      </c>
+      <c r="G51">
+        <v>0.02005388442613458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08599589457177909</v>
+        <v>0.09421906759683003</v>
       </c>
       <c r="C53">
-        <v>-0.06974718396516423</v>
+        <v>0.08570438742968206</v>
       </c>
       <c r="D53">
-        <v>-0.03427496033226481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04105607069057437</v>
+      </c>
+      <c r="E53">
+        <v>0.05169120481976627</v>
+      </c>
+      <c r="F53">
+        <v>0.08915300815746115</v>
+      </c>
+      <c r="G53">
+        <v>-0.06176317267366239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03438257277140116</v>
+        <v>0.02820384946982927</v>
       </c>
       <c r="C54">
-        <v>-0.02431572008895429</v>
+        <v>0.02689703781887132</v>
       </c>
       <c r="D54">
-        <v>0.0003235268559051251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03020874803011697</v>
+      </c>
+      <c r="E54">
+        <v>0.04253337566039703</v>
+      </c>
+      <c r="F54">
+        <v>0.0959311026855625</v>
+      </c>
+      <c r="G54">
+        <v>-0.004837625649729049</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07777226105916292</v>
+        <v>0.08537650782869467</v>
       </c>
       <c r="C55">
-        <v>-0.0548901412134908</v>
+        <v>0.0693442150511959</v>
       </c>
       <c r="D55">
-        <v>-0.03898444135179199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04823398975892115</v>
+      </c>
+      <c r="E55">
+        <v>0.04249442669657941</v>
+      </c>
+      <c r="F55">
+        <v>0.06410411940390329</v>
+      </c>
+      <c r="G55">
+        <v>-0.05099331446193776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1508153736381125</v>
+        <v>0.1470826874400214</v>
       </c>
       <c r="C56">
-        <v>-0.08403776666507587</v>
+        <v>0.1032604751662301</v>
       </c>
       <c r="D56">
-        <v>-0.04209277813619055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05182201335756786</v>
+      </c>
+      <c r="E56">
+        <v>0.0453860664167316</v>
+      </c>
+      <c r="F56">
+        <v>0.05003758879031574</v>
+      </c>
+      <c r="G56">
+        <v>-0.05876637621830894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001719938467622149</v>
+        <v>0.0006663397186522339</v>
       </c>
       <c r="C57">
-        <v>-0.001475401196890608</v>
+        <v>0.0009853621458354373</v>
       </c>
       <c r="D57">
-        <v>0.02082224809457467</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01662067630458754</v>
+      </c>
+      <c r="E57">
+        <v>0.00951782983388934</v>
+      </c>
+      <c r="F57">
+        <v>0.009360621105816905</v>
+      </c>
+      <c r="G57">
+        <v>-0.00502497198573602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.07078864718991232</v>
+        <v>0.02889623608693068</v>
       </c>
       <c r="C58">
-        <v>-0.02108317731036455</v>
+        <v>0.04066724425114284</v>
       </c>
       <c r="D58">
-        <v>0.8794134548861617</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4586699262101201</v>
+      </c>
+      <c r="E58">
+        <v>0.7020669219458041</v>
+      </c>
+      <c r="F58">
+        <v>-0.4606323135351621</v>
+      </c>
+      <c r="G58">
+        <v>0.04558071476219304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1265578594398139</v>
+        <v>0.1436810214928679</v>
       </c>
       <c r="C59">
-        <v>0.206183856598683</v>
+        <v>-0.1869460179464877</v>
       </c>
       <c r="D59">
-        <v>0.01866495168285639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03202799835512678</v>
+      </c>
+      <c r="E59">
+        <v>0.02807666697120279</v>
+      </c>
+      <c r="F59">
+        <v>0.02274930347298225</v>
+      </c>
+      <c r="G59">
+        <v>0.02854093466076922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3145788426265214</v>
+        <v>0.2839569048333336</v>
       </c>
       <c r="C60">
-        <v>-0.080896880310313</v>
+        <v>0.09583248712606858</v>
       </c>
       <c r="D60">
-        <v>0.04577984440482968</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2122075107241094</v>
+      </c>
+      <c r="E60">
+        <v>-0.267217069729811</v>
+      </c>
+      <c r="F60">
+        <v>-0.1124030450150901</v>
+      </c>
+      <c r="G60">
+        <v>-0.04593523144334182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04374079600848749</v>
+        <v>0.04111653527632147</v>
       </c>
       <c r="C61">
-        <v>-0.06383591705502037</v>
+        <v>0.06192746469950116</v>
       </c>
       <c r="D61">
-        <v>0.01164588971071524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04522520755362805</v>
+      </c>
+      <c r="E61">
+        <v>0.02423928040165863</v>
+      </c>
+      <c r="F61">
+        <v>0.08188696309405348</v>
+      </c>
+      <c r="G61">
+        <v>-0.01091122245969972</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01723651999755547</v>
+        <v>0.01524300476207307</v>
       </c>
       <c r="C63">
-        <v>-0.03582123092247313</v>
+        <v>0.03281349685451596</v>
       </c>
       <c r="D63">
-        <v>-0.00557540962647248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0218716676149703</v>
+      </c>
+      <c r="E63">
+        <v>0.03869489071067379</v>
+      </c>
+      <c r="F63">
+        <v>0.07634093650696118</v>
+      </c>
+      <c r="G63">
+        <v>-0.02739831596419877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05098900470683688</v>
+        <v>0.05575024147905392</v>
       </c>
       <c r="C64">
-        <v>-0.03762683351710741</v>
+        <v>0.05405700446930824</v>
       </c>
       <c r="D64">
-        <v>-0.009155402103879278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005632000821833138</v>
+      </c>
+      <c r="E64">
+        <v>0.02019957697218929</v>
+      </c>
+      <c r="F64">
+        <v>0.08597567960923912</v>
+      </c>
+      <c r="G64">
+        <v>-0.008632800206194759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.09467581718962613</v>
+        <v>0.06973673105458748</v>
       </c>
       <c r="C65">
-        <v>-0.02531510613619378</v>
+        <v>0.03229722288320699</v>
       </c>
       <c r="D65">
-        <v>0.04245709537918936</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08602805855285021</v>
+      </c>
+      <c r="E65">
+        <v>0.03566177371691902</v>
+      </c>
+      <c r="F65">
+        <v>0.01519592992417441</v>
+      </c>
+      <c r="G65">
+        <v>-0.001404432591351662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06701611129164123</v>
+        <v>0.05273978741300792</v>
       </c>
       <c r="C66">
-        <v>-0.1020044469850175</v>
+        <v>0.09033326128634511</v>
       </c>
       <c r="D66">
-        <v>0.03609066108908573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07994704596546855</v>
+      </c>
+      <c r="E66">
+        <v>0.02545149243101425</v>
+      </c>
+      <c r="F66">
+        <v>0.09251997664130031</v>
+      </c>
+      <c r="G66">
+        <v>-0.002112092165795932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05334106925874064</v>
+        <v>0.04650781159692251</v>
       </c>
       <c r="C67">
-        <v>-0.03269038359389279</v>
+        <v>0.03023500906862898</v>
       </c>
       <c r="D67">
-        <v>-0.007448327492288678</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01180169976102451</v>
+      </c>
+      <c r="E67">
+        <v>0.01735445098273919</v>
+      </c>
+      <c r="F67">
+        <v>0.05456786771657185</v>
+      </c>
+      <c r="G67">
+        <v>-0.01092378289748944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1081560627523427</v>
+        <v>0.1485828440701375</v>
       </c>
       <c r="C68">
-        <v>0.292493689318977</v>
+        <v>-0.2530600075290179</v>
       </c>
       <c r="D68">
-        <v>-0.004464955599581395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01825749169425383</v>
+      </c>
+      <c r="E68">
+        <v>0.04226627594341176</v>
+      </c>
+      <c r="F68">
+        <v>0.01709723451163456</v>
+      </c>
+      <c r="G68">
+        <v>-0.01090090394139534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09094740309405218</v>
+        <v>0.08740639901367585</v>
       </c>
       <c r="C69">
-        <v>-0.0644560073148345</v>
+        <v>0.08514509068308329</v>
       </c>
       <c r="D69">
-        <v>-0.04214198899066878</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0120226580942848</v>
+      </c>
+      <c r="E69">
+        <v>0.0324663945419802</v>
+      </c>
+      <c r="F69">
+        <v>0.09674265377846489</v>
+      </c>
+      <c r="G69">
+        <v>-0.02708124767477095</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1051493568246373</v>
+        <v>0.1408392468733853</v>
       </c>
       <c r="C71">
-        <v>0.2515463779366636</v>
+        <v>-0.2340924953145102</v>
       </c>
       <c r="D71">
-        <v>0.02535447441158808</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01460108198194141</v>
+      </c>
+      <c r="E71">
+        <v>0.06420553309135511</v>
+      </c>
+      <c r="F71">
+        <v>0.05664826910563844</v>
+      </c>
+      <c r="G71">
+        <v>-0.03379191769525681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09037266641387312</v>
+        <v>0.09738791383917897</v>
       </c>
       <c r="C72">
-        <v>-0.047842964644811</v>
+        <v>0.05530152726856821</v>
       </c>
       <c r="D72">
-        <v>-0.008410278894536299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0205429318036748</v>
+      </c>
+      <c r="E72">
+        <v>0.009780641525253949</v>
+      </c>
+      <c r="F72">
+        <v>0.0797950584163272</v>
+      </c>
+      <c r="G72">
+        <v>-0.02742031046027497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4225151273531791</v>
+        <v>0.347372222203166</v>
       </c>
       <c r="C73">
-        <v>-0.04290629930922128</v>
+        <v>0.07602995895696903</v>
       </c>
       <c r="D73">
-        <v>0.1861120286178813</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4510152672776874</v>
+      </c>
+      <c r="E73">
+        <v>-0.4694878449660577</v>
+      </c>
+      <c r="F73">
+        <v>-0.289152386532175</v>
+      </c>
+      <c r="G73">
+        <v>-0.1029006112958739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1165369417082283</v>
+        <v>0.1119782557370611</v>
       </c>
       <c r="C74">
-        <v>-0.09917530234552438</v>
+        <v>0.09853566891573906</v>
       </c>
       <c r="D74">
-        <v>-0.0166544284573039</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03183124584548797</v>
+      </c>
+      <c r="E74">
+        <v>0.06214116728790106</v>
+      </c>
+      <c r="F74">
+        <v>0.05378437309909914</v>
+      </c>
+      <c r="G74">
+        <v>-0.07197681463208887</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2518889444693801</v>
+        <v>0.2583848227596674</v>
       </c>
       <c r="C75">
-        <v>-0.1044251400920441</v>
+        <v>0.1318937220415743</v>
       </c>
       <c r="D75">
-        <v>-0.06456463525328207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.131247813031559</v>
+      </c>
+      <c r="E75">
+        <v>0.07105816784769253</v>
+      </c>
+      <c r="F75">
+        <v>0.01713624377628468</v>
+      </c>
+      <c r="G75">
+        <v>-0.07637855460298124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1171457906953823</v>
+        <v>0.1293267294308718</v>
       </c>
       <c r="C76">
-        <v>-0.0894474524311048</v>
+        <v>0.1006186980493737</v>
       </c>
       <c r="D76">
-        <v>-0.03471386343651342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05938732036822813</v>
+      </c>
+      <c r="E76">
+        <v>0.06650532084392961</v>
+      </c>
+      <c r="F76">
+        <v>0.06989221431435738</v>
+      </c>
+      <c r="G76">
+        <v>-0.06124061993876077</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07958955730165682</v>
+        <v>0.06240956153340582</v>
       </c>
       <c r="C77">
-        <v>-0.05372871419882909</v>
+        <v>0.06997705636706671</v>
       </c>
       <c r="D77">
-        <v>0.05310481408138176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06275149739909446</v>
+      </c>
+      <c r="E77">
+        <v>0.07104526086565485</v>
+      </c>
+      <c r="F77">
+        <v>0.1191318613867133</v>
+      </c>
+      <c r="G77">
+        <v>0.1388997169465859</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.05210973415494567</v>
+        <v>0.04374206198630774</v>
       </c>
       <c r="C78">
-        <v>-0.04420031617739467</v>
+        <v>0.05558843764953172</v>
       </c>
       <c r="D78">
-        <v>0.02160509401770763</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0730940821261937</v>
+      </c>
+      <c r="E78">
+        <v>0.02682250926378014</v>
+      </c>
+      <c r="F78">
+        <v>0.103925786696242</v>
+      </c>
+      <c r="G78">
+        <v>-0.003270755599786943</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02560682774401363</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03732442169977603</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05990727539522033</v>
+      </c>
+      <c r="E79">
+        <v>0.04973298745530887</v>
+      </c>
+      <c r="F79">
+        <v>0.04469075858938868</v>
+      </c>
+      <c r="G79">
+        <v>-0.06546052101647709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04672733044232534</v>
+        <v>0.03501439574442733</v>
       </c>
       <c r="C80">
-        <v>-0.04938326136912922</v>
+        <v>0.05499469900011202</v>
       </c>
       <c r="D80">
-        <v>0.03228851827406109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04658505355981305</v>
+      </c>
+      <c r="E80">
+        <v>0.01249844405058703</v>
+      </c>
+      <c r="F80">
+        <v>0.03512079326108189</v>
+      </c>
+      <c r="G80">
+        <v>0.04733206505427499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1404646266793327</v>
+        <v>0.1412344550155288</v>
       </c>
       <c r="C81">
-        <v>-0.06849735895958838</v>
+        <v>0.09488461195649157</v>
       </c>
       <c r="D81">
-        <v>-0.03900957392532185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09813526948480104</v>
+      </c>
+      <c r="E81">
+        <v>0.08017385220573466</v>
+      </c>
+      <c r="F81">
+        <v>0.01928027841288231</v>
+      </c>
+      <c r="G81">
+        <v>-0.05607101128197271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1572178519257429</v>
+        <v>0.2016750237917278</v>
       </c>
       <c r="C82">
-        <v>-0.05512435669238828</v>
+        <v>0.1334524477740547</v>
       </c>
       <c r="D82">
-        <v>-0.1380364100871763</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2311194291774532</v>
+      </c>
+      <c r="E82">
+        <v>0.007013495291113878</v>
+      </c>
+      <c r="F82">
+        <v>0.08703186349724279</v>
+      </c>
+      <c r="G82">
+        <v>-0.0402899848304801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03576161322929437</v>
+        <v>0.02778839134904574</v>
       </c>
       <c r="C83">
-        <v>-0.0182320684747064</v>
+        <v>0.04032668017123284</v>
       </c>
       <c r="D83">
-        <v>0.02454417251406561</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0341705714024428</v>
+      </c>
+      <c r="E83">
+        <v>0.009108275933735534</v>
+      </c>
+      <c r="F83">
+        <v>0.05105002893294927</v>
+      </c>
+      <c r="G83">
+        <v>0.02048975885623215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2209535093399776</v>
+        <v>0.2052064160000517</v>
       </c>
       <c r="C85">
-        <v>-0.1012595326037753</v>
+        <v>0.1188877980511879</v>
       </c>
       <c r="D85">
-        <v>-0.1000700049786044</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1024902845542085</v>
+      </c>
+      <c r="E85">
+        <v>0.001698179107006359</v>
+      </c>
+      <c r="F85">
+        <v>-0.01717525140854544</v>
+      </c>
+      <c r="G85">
+        <v>-0.1305215671775251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01256724385794304</v>
+        <v>0.01146003100292016</v>
       </c>
       <c r="C86">
-        <v>-0.03434985398288497</v>
+        <v>0.03128604537311044</v>
       </c>
       <c r="D86">
-        <v>0.04007210693224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07044420561338544</v>
+      </c>
+      <c r="E86">
+        <v>0.04813676375816401</v>
+      </c>
+      <c r="F86">
+        <v>0.1362317074421993</v>
+      </c>
+      <c r="G86">
+        <v>0.01178371167086843</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02365625980431084</v>
+        <v>0.02139369486581568</v>
       </c>
       <c r="C87">
-        <v>-0.01736902605583106</v>
+        <v>0.02172894157887595</v>
       </c>
       <c r="D87">
-        <v>0.09421559610743581</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09132445626262874</v>
+      </c>
+      <c r="E87">
+        <v>0.09399735246625449</v>
+      </c>
+      <c r="F87">
+        <v>0.09134984732916916</v>
+      </c>
+      <c r="G87">
+        <v>0.03766395358556259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.105738660455835</v>
+        <v>0.0918625345514148</v>
       </c>
       <c r="C88">
-        <v>-0.06771830656605411</v>
+        <v>0.06193489092012542</v>
       </c>
       <c r="D88">
-        <v>-0.01985523107189017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01025542229035622</v>
+      </c>
+      <c r="E88">
+        <v>0.03642531718559552</v>
+      </c>
+      <c r="F88">
+        <v>0.07384139644020524</v>
+      </c>
+      <c r="G88">
+        <v>0.0304922254709094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1678921144107014</v>
+        <v>0.2201325596763844</v>
       </c>
       <c r="C89">
-        <v>0.3832649076625256</v>
+        <v>-0.3819580404357077</v>
       </c>
       <c r="D89">
-        <v>-0.02881076807286026</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01265266888028343</v>
+      </c>
+      <c r="E89">
+        <v>0.03800937843055616</v>
+      </c>
+      <c r="F89">
+        <v>0.09588835983926229</v>
+      </c>
+      <c r="G89">
+        <v>0.06492177127965125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1631094663584586</v>
+        <v>0.1987083675035314</v>
       </c>
       <c r="C90">
-        <v>0.3538446748530246</v>
+        <v>-0.3166776387415784</v>
       </c>
       <c r="D90">
-        <v>-0.01558227941646894</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01222932190201248</v>
+      </c>
+      <c r="E90">
+        <v>0.06768239791796203</v>
+      </c>
+      <c r="F90">
+        <v>0.04574858813250977</v>
+      </c>
+      <c r="G90">
+        <v>0.01204982314585849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1909866633149156</v>
+        <v>0.1871252835970577</v>
       </c>
       <c r="C91">
-        <v>-0.1111297030458866</v>
+        <v>0.138282929713212</v>
       </c>
       <c r="D91">
-        <v>-0.06207435505511044</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1072646310991438</v>
+      </c>
+      <c r="E91">
+        <v>0.06317688196399389</v>
+      </c>
+      <c r="F91">
+        <v>0.03621077686036656</v>
+      </c>
+      <c r="G91">
+        <v>-0.0587575102456379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1570399944519802</v>
+        <v>0.1804418631617308</v>
       </c>
       <c r="C92">
-        <v>0.2986410015644372</v>
+        <v>-0.2839111524087169</v>
       </c>
       <c r="D92">
-        <v>-0.009282313971483045</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003413198826494855</v>
+      </c>
+      <c r="E92">
+        <v>0.06678250306101974</v>
+      </c>
+      <c r="F92">
+        <v>0.08286839779851328</v>
+      </c>
+      <c r="G92">
+        <v>0.00907380879537331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1854956390129006</v>
+        <v>0.2227009235671825</v>
       </c>
       <c r="C93">
-        <v>0.3457896044558675</v>
+        <v>-0.3207003306114666</v>
       </c>
       <c r="D93">
-        <v>-0.00777112710374099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0002943283070919728</v>
+      </c>
+      <c r="E93">
+        <v>0.0523140869200942</v>
+      </c>
+      <c r="F93">
+        <v>0.04218810008415222</v>
+      </c>
+      <c r="G93">
+        <v>-0.0265966651046541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3379338364957302</v>
+        <v>0.3439657940167279</v>
       </c>
       <c r="C94">
-        <v>-0.1333802180913459</v>
+        <v>0.1833441751741612</v>
       </c>
       <c r="D94">
-        <v>-0.2831750503603</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4806904757967423</v>
+      </c>
+      <c r="E94">
+        <v>0.1253301861824895</v>
+      </c>
+      <c r="F94">
+        <v>-0.4436609073701736</v>
+      </c>
+      <c r="G94">
+        <v>0.3227363546428673</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1097262481424345</v>
+        <v>0.08576588016784845</v>
       </c>
       <c r="C95">
-        <v>-0.07780556079862942</v>
+        <v>0.06626685512302137</v>
       </c>
       <c r="D95">
-        <v>0.06511832955296065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1614908325031304</v>
+      </c>
+      <c r="E95">
+        <v>-0.1214434446601187</v>
+      </c>
+      <c r="F95">
+        <v>0.1883389312042218</v>
+      </c>
+      <c r="G95">
+        <v>0.8699836163937481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1978980395852076</v>
+        <v>0.1876256806961109</v>
       </c>
       <c r="C98">
-        <v>-0.01711621423882484</v>
+        <v>0.04195344090463138</v>
       </c>
       <c r="D98">
-        <v>0.07877355036234679</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1830632598636908</v>
+      </c>
+      <c r="E98">
+        <v>-0.1506509237002626</v>
+      </c>
+      <c r="F98">
+        <v>-0.04603020454368125</v>
+      </c>
+      <c r="G98">
+        <v>-0.1011497838005785</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01061950682426732</v>
+        <v>0.006092865461145689</v>
       </c>
       <c r="C101">
-        <v>-0.02741219192238926</v>
+        <v>0.02734439379890284</v>
       </c>
       <c r="D101">
-        <v>-0.01879674138395079</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01946341614474794</v>
+      </c>
+      <c r="E101">
+        <v>0.03097466097767677</v>
+      </c>
+      <c r="F101">
+        <v>0.08895106411342793</v>
+      </c>
+      <c r="G101">
+        <v>-0.002762801575635662</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1239454755321487</v>
+        <v>0.1251553870759717</v>
       </c>
       <c r="C102">
-        <v>-0.07122398622931723</v>
+        <v>0.09912623742220582</v>
       </c>
       <c r="D102">
-        <v>-0.03294767098910255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05029194530443534</v>
+      </c>
+      <c r="E102">
+        <v>-0.008926499195429339</v>
+      </c>
+      <c r="F102">
+        <v>0.03882351723543146</v>
+      </c>
+      <c r="G102">
+        <v>-0.02213067907835378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
